--- a/trunk/see-saw-unity/Docs/UnityComparisons.xlsx
+++ b/trunk/see-saw-unity/Docs/UnityComparisons.xlsx
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +124,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,13 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -183,12 +188,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -206,8 +205,29 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,269 +524,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="26.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="1"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="44.25" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="C5" s="6">
         <v>1500</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="D6" s="4"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="20"/>
+      <c r="C7" s="12">
         <v>400</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="6">
         <v>1500</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="4"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="C10" s="6">
         <v>400</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D11" s="6">
         <v>1500</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="4"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9">
+      <c r="C13" s="6">
         <v>500</v>
       </c>
-      <c r="C13" s="15">
+      <c r="D13" s="10">
         <v>500</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13">
-        <f>SUM(B5:B13)</f>
+      <c r="C15" s="8">
+        <f>SUM(C5:C13)</f>
         <v>2800</v>
       </c>
-      <c r="C15" s="14">
-        <f>SUM(C5:C13)</f>
+      <c r="D15" s="19">
+        <f>SUM(D5:D13)</f>
         <v>3500</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+  <mergeCells count="28">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
